--- a/results/modelxgb/modelxgb_df_results.xlsx
+++ b/results/modelxgb/modelxgb_df_results.xlsx
@@ -44,17 +44,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EFF9EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2EDCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0094D390"/>
+        <fgColor rgb="00F6FCF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6EFD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D594"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00369F54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045AD5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5DB9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBF1D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8F0D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0D99B"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,57 +104,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0053B466"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ACDEA6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1F3DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4EECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095D391"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003CA559"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0056B567"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0DFAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3F4DE"/>
+        <fgColor rgb="004DB163"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AADDA4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEF2D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -525,13 +525,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.8008999999999999</v>
+        <v>0.7931</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0406</v>
+        <v>0.0416</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1.9021</v>
+        <v>1.9309</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +542,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.8472</v>
+        <v>0.8419</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0355</v>
+        <v>0.0362</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1.6756</v>
+        <v>1.678</v>
       </c>
     </row>
     <row r="4">
@@ -559,13 +559,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.9018</v>
+        <v>0.8904</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.0284</v>
+        <v>0.03</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.326</v>
+        <v>1.3993</v>
       </c>
     </row>
     <row r="5">
@@ -576,13 +576,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.9514</v>
+        <v>0.9403</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>0.02</v>
+        <v>0.0221</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.9317</v>
+        <v>0.9965000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -593,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.992</v>
+        <v>0.9814000000000001</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.0081</v>
+        <v>0.0124</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.3524</v>
+        <v>0.4986</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.9369</v>
+        <v>0.9304</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>0.0226</v>
+        <v>0.0237</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>1.0558</v>
+        <v>1.081</v>
       </c>
     </row>
     <row r="8">
@@ -627,13 +627,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.8786</v>
+        <v>0.8769</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.031</v>
+        <v>0.0312</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>1.4588</v>
+        <v>1.4438</v>
       </c>
     </row>
     <row r="9">
@@ -644,13 +644,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8237</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.0377</v>
+        <v>0.0369</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>1.7736</v>
+        <v>1.7153</v>
       </c>
     </row>
     <row r="10">
@@ -661,13 +661,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.7603</v>
+        <v>0.7693</v>
       </c>
       <c r="D10" s="17" t="n">
-        <v>0.0426</v>
+        <v>0.0418</v>
       </c>
       <c r="E10" s="17" t="n">
-        <v>1.9982</v>
+        <v>1.9398</v>
       </c>
     </row>
   </sheetData>

--- a/results/modelxgb/modelxgb_df_results.xlsx
+++ b/results/modelxgb/modelxgb_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -44,22 +44,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F6FCF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6EFD0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098D594"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00369F54"/>
+        <fgColor rgb="00EDF8EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEECC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0091D28E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039A257"/>
       </patternFill>
     </fill>
     <fill>
@@ -69,17 +69,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0045AD5F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A5DB9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBF1D6"/>
+        <fgColor rgb="0053B466"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABDDA5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFF3DA"/>
       </patternFill>
     </fill>
     <fill>
@@ -89,32 +89,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8F0D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A0D99B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003AA357"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004DB163"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AADDA4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEF2D9"/>
+        <fgColor rgb="00EDF8E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1EDCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D28F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003BA458"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056B567"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AEDEA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1F3DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -148,22 +153,25 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -172,19 +180,19 @@
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -525,13 +533,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7931</v>
+        <v>0.8055</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0416</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>1.9309</v>
+        <v>0.0402</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.8751</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +550,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.8419</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.0362</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>1.678</v>
+        <v>0.8517</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.0349</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>1.6464</v>
       </c>
     </row>
     <row r="4">
@@ -559,13 +567,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.8904</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>1.3993</v>
+        <v>0.9051</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>1.2998</v>
       </c>
     </row>
     <row r="5">
@@ -576,13 +584,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.9403</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.0221</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>0.9965000000000001</v>
+        <v>0.9533</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0.911</v>
       </c>
     </row>
     <row r="6">
@@ -593,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.9814000000000001</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>0.0124</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>0.4986</v>
+        <v>0.9929</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0.3254</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.9304</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>0.0237</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>1.081</v>
+        <v>0.9381</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>1.0401</v>
       </c>
     </row>
     <row r="8">
@@ -627,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.8769</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>0.0312</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>1.4438</v>
+        <v>0.8809</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>1.4415</v>
       </c>
     </row>
     <row r="9">
@@ -644,13 +652,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.8237</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>0.0369</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>1.7153</v>
+        <v>0.8191000000000001</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0.0374</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>1.7604</v>
       </c>
     </row>
     <row r="10">
@@ -661,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.7693</v>
-      </c>
-      <c r="D10" s="17" t="n">
-        <v>0.0418</v>
-      </c>
-      <c r="E10" s="17" t="n">
-        <v>1.9398</v>
+        <v>0.7602</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>0.0426</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>1.9976</v>
       </c>
     </row>
   </sheetData>

--- a/results/modelxgb/modelxgb_df_results.xlsx
+++ b/results/modelxgb/modelxgb_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -44,22 +44,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDF8EA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CEECC8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0091D28E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0039A257"/>
+        <fgColor rgb="00F2FAEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBF1D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0D99B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0050B264"/>
       </patternFill>
     </fill>
     <fill>
@@ -69,17 +69,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0053B466"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABDDA5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFF3DA"/>
+        <fgColor rgb="0065BD6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AEDEA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3F4DE"/>
       </patternFill>
     </fill>
     <fill>
@@ -89,37 +89,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDF8E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1EDCB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092D28F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003BA458"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0056B567"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AEDEA7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1F3DC"/>
+        <fgColor rgb="00DBF1D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BD696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0048AE60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BD6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFDFA8"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -153,46 +143,40 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -533,13 +517,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.8055</v>
+        <v>0.2438</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0402</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1.8751</v>
+        <v>0.0401</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1.7724</v>
       </c>
     </row>
     <row r="3">
@@ -550,13 +534,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.8517</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.0349</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>1.6464</v>
+        <v>0.4039</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.0354</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>1.5715</v>
       </c>
     </row>
     <row r="4">
@@ -567,13 +551,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.9051</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>0.0279</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>1.2998</v>
+        <v>0.6251</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>1.2076</v>
       </c>
     </row>
     <row r="5">
@@ -584,13 +568,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.9533</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>0.0196</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>0.911</v>
+        <v>0.8027</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.8639</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.9929</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>0.3254</v>
+        <v>0.9858</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
@@ -618,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.9381</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>0.0223</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>1.0401</v>
+        <v>0.7663</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>0.9809</v>
       </c>
     </row>
     <row r="8">
@@ -635,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.8809</v>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>0.0307</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>1.4415</v>
+        <v>0.5944</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>1.3077</v>
       </c>
     </row>
     <row r="9">
@@ -652,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.8191000000000001</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>0.0374</v>
-      </c>
-      <c r="E9" s="17" t="n">
-        <v>1.7604</v>
+        <v>0.3822</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>0.0367</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>1.6166</v>
       </c>
     </row>
     <row r="10">
@@ -669,13 +653,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.7602</v>
-      </c>
-      <c r="D10" s="18" t="n">
-        <v>0.0426</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <v>1.9976</v>
+        <v>0.2225</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>1.8331</v>
       </c>
     </row>
   </sheetData>

--- a/results/modelxgb/modelxgb_df_results.xlsx
+++ b/results/modelxgb/modelxgb_df_results.xlsx
@@ -44,7 +44,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2FAEF"/>
+        <fgColor rgb="00F1FAEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAF0D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0D99B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0050B264"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BD6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFDFA8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4F5DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FCF5"/>
       </patternFill>
     </fill>
     <fill>
@@ -54,62 +94,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A0D99B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0050B264"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0065BD6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AEDEA7"/>
+        <fgColor rgb="0099D595"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0048AE60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0DFAA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00E3F4DE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBF1D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BD696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0048AE60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0066BD6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFDFA8"/>
       </patternFill>
     </fill>
   </fills>
@@ -167,16 +167,16 @@
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -517,13 +517,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.2438</v>
+        <v>0.2472</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0.0401</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1.7724</v>
+        <v>1.7698</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.4039</v>
+        <v>0.4061</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0354</v>
+        <v>0.0353</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1.5715</v>
+        <v>1.5687</v>
       </c>
     </row>
     <row r="4">
@@ -551,13 +551,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.6251</v>
+        <v>0.6272</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.028</v>
+        <v>0.0279</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.2076</v>
+        <v>1.2053</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +568,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.8027</v>
+        <v>0.8038</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>0.0203</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.8639</v>
+        <v>0.8627</v>
       </c>
     </row>
     <row r="6">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.9858</v>
+        <v>0.9865</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.0055</v>
+        <v>0.0053</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.24</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.7663</v>
+        <v>0.7644</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>0.0222</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>0.9809</v>
+        <v>0.0223</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>0.9846</v>
       </c>
     </row>
     <row r="8">
@@ -619,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.5944</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>0.0295</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>1.3077</v>
+        <v>0.5906</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>0.0296</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>1.3142</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.3822</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>0.0367</v>
+        <v>0.3769</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>0.0368</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>1.6166</v>
+        <v>1.624</v>
       </c>
     </row>
     <row r="10">
@@ -653,13 +653,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.2225</v>
+        <v>0.2178</v>
       </c>
       <c r="D10" s="16" t="n">
-        <v>0.0415</v>
+        <v>0.0416</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>1.8331</v>
+        <v>1.839</v>
       </c>
     </row>
   </sheetData>

--- a/results/modelxgb/modelxgb_df_results.xlsx
+++ b/results/modelxgb/modelxgb_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -44,22 +44,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F1FAEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAF0D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A0D99B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0050B264"/>
+        <fgColor rgb="00EDF8EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEECC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0091D28E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039A257"/>
       </patternFill>
     </fill>
     <fill>
@@ -69,17 +69,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0066BD6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFDFA8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4F5DF"/>
+        <fgColor rgb="0053B466"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABDDA5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFF3DA"/>
       </patternFill>
     </fill>
     <fill>
@@ -89,27 +89,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DBF1D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099D595"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0048AE60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0DFAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3F4DE"/>
+        <fgColor rgb="00EDF8E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1EDCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D28F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003BA458"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056B567"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AEDEA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1F3DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -143,22 +153,25 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -167,16 +180,19 @@
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -517,13 +533,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.2472</v>
+        <v>0.8055</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0401</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>1.7698</v>
+        <v>0.0402</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.8751</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +550,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.4061</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.0353</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>1.5687</v>
+        <v>0.8517</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.0349</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>1.6464</v>
       </c>
     </row>
     <row r="4">
@@ -551,13 +567,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.6272</v>
-      </c>
-      <c r="D4" s="6" t="n">
+        <v>0.9051</v>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>0.0279</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>1.2053</v>
+      <c r="E4" s="8" t="n">
+        <v>1.2998</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +584,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.8038</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>0.8627</v>
+        <v>0.9533</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0.911</v>
       </c>
     </row>
     <row r="6">
@@ -585,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.9865</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>0.2351</v>
+        <v>0.9929</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0.3254</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.7644</v>
-      </c>
-      <c r="D7" s="11" t="n">
+        <v>0.9381</v>
+      </c>
+      <c r="D7" s="12" t="n">
         <v>0.0223</v>
       </c>
-      <c r="E7" s="11" t="n">
-        <v>0.9846</v>
+      <c r="E7" s="13" t="n">
+        <v>1.0401</v>
       </c>
     </row>
     <row r="8">
@@ -619,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.5906</v>
-      </c>
-      <c r="D8" s="12" t="n">
-        <v>0.0296</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>1.3142</v>
+        <v>0.8809</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>1.4415</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +652,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.3769</v>
-      </c>
-      <c r="D9" s="14" t="n">
-        <v>0.0368</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>1.624</v>
+        <v>0.8191000000000001</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0.0374</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>1.7604</v>
       </c>
     </row>
     <row r="10">
@@ -653,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.2178</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>0.0416</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>1.839</v>
+        <v>0.7602</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>0.0426</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>1.9976</v>
       </c>
     </row>
   </sheetData>

--- a/results/modelxgb/modelxgb_df_results.xlsx
+++ b/results/modelxgb/modelxgb_df_results.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEECC8"/>
+        <fgColor rgb="00CFECC9"/>
       </patternFill>
     </fill>
     <fill>
@@ -533,13 +533,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.8055</v>
+        <v>0.8054</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0.0402</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.8751</v>
+        <v>1.8756</v>
       </c>
     </row>
     <row r="3">
@@ -550,13 +550,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.8517</v>
+        <v>0.8516</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.0349</v>
+        <v>0.035</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1.6464</v>
+        <v>1.647</v>
       </c>
     </row>
     <row r="4">
@@ -567,13 +567,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.9051</v>
+        <v>0.905</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>0.0279</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>1.2998</v>
+        <v>1.3004</v>
       </c>
     </row>
     <row r="5">
@@ -584,13 +584,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.9533</v>
+        <v>0.9532</v>
       </c>
       <c r="D5" s="9" t="n">
         <v>0.0196</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.911</v>
+        <v>0.9117</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.9929</v>
+        <v>0.9928</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>0.0077</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>0.3254</v>
+        <v>0.3265</v>
       </c>
     </row>
     <row r="7">
@@ -621,10 +621,10 @@
         <v>0.9381</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.0223</v>
+        <v>0.0224</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.0401</v>
+        <v>1.0402</v>
       </c>
     </row>
     <row r="8">
@@ -641,7 +641,7 @@
         <v>0.0307</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>1.4415</v>
+        <v>1.4414</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>0.0374</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>1.7604</v>
+        <v>1.7602</v>
       </c>
     </row>
     <row r="10">
@@ -675,7 +675,7 @@
         <v>0.0426</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>1.9976</v>
+        <v>1.9974</v>
       </c>
     </row>
   </sheetData>
